--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itgb4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itgb4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H2">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I2">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J2">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N2">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O2">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P2">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q2">
-        <v>21.6997934075425</v>
+        <v>2.520633363693</v>
       </c>
       <c r="R2">
-        <v>86.79917363016999</v>
+        <v>10.082533454772</v>
       </c>
       <c r="S2">
-        <v>0.1148160066930622</v>
+        <v>0.04750490635402121</v>
       </c>
       <c r="T2">
-        <v>0.0807979501279789</v>
+        <v>0.03379665019984176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H3">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I3">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J3">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N3">
         <v>2.23052</v>
       </c>
       <c r="O3">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P3">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q3">
-        <v>1.023126884386667</v>
+        <v>0.4830793300400001</v>
       </c>
       <c r="R3">
-        <v>6.138761306319999</v>
+        <v>2.898475980240001</v>
       </c>
       <c r="S3">
-        <v>0.005413477492590332</v>
+        <v>0.009104314282935334</v>
       </c>
       <c r="T3">
-        <v>0.005714332396630196</v>
+        <v>0.009715690927903789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H4">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I4">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J4">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N4">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O4">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P4">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q4">
-        <v>0.5257659948363334</v>
+        <v>0.188879184047</v>
       </c>
       <c r="R4">
-        <v>3.154595969018</v>
+        <v>1.133275104282</v>
       </c>
       <c r="S4">
-        <v>0.002781886022985389</v>
+        <v>0.00355969578107572</v>
       </c>
       <c r="T4">
-        <v>0.002936489797295094</v>
+        <v>0.003798737931435316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H5">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I5">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J5">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N5">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O5">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P5">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q5">
-        <v>5.591934819862999</v>
+        <v>3.681305350186501</v>
       </c>
       <c r="R5">
-        <v>22.367739279452</v>
+        <v>14.725221400746</v>
       </c>
       <c r="S5">
-        <v>0.0295875455423181</v>
+        <v>0.06937941409493559</v>
       </c>
       <c r="T5">
-        <v>0.02082125217547716</v>
+        <v>0.04935893930118285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H6">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I6">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J6">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N6">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O6">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P6">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q6">
-        <v>6.886497745554332</v>
+        <v>0.119227587693</v>
       </c>
       <c r="R6">
-        <v>41.318986473326</v>
+        <v>0.715365526158</v>
       </c>
       <c r="S6">
-        <v>0.0364372211474832</v>
+        <v>0.002247012782483208</v>
       </c>
       <c r="T6">
-        <v>0.03846222571927831</v>
+        <v>0.002397905105997429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H7">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I7">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J7">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N7">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O7">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P7">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q7">
-        <v>1.154589139014333</v>
+        <v>0.268413838642</v>
       </c>
       <c r="R7">
-        <v>6.927534834086001</v>
+        <v>1.610483031852</v>
       </c>
       <c r="S7">
-        <v>0.006109058820197297</v>
+        <v>0.005058639012113217</v>
       </c>
       <c r="T7">
-        <v>0.006448570771182594</v>
+        <v>0.005398338812803224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I8">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J8">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N8">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O8">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P8">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q8">
-        <v>46.42174207279667</v>
+        <v>11.42053783077733</v>
       </c>
       <c r="R8">
-        <v>278.53045243678</v>
+        <v>68.52322698466401</v>
       </c>
       <c r="S8">
-        <v>0.2456225710739357</v>
+        <v>0.2152362132383928</v>
       </c>
       <c r="T8">
-        <v>0.2592730859512248</v>
+        <v>0.2296898436641405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I9">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J9">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N9">
         <v>2.23052</v>
       </c>
       <c r="O9">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P9">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q9">
         <v>2.188745830097778</v>
@@ -1013,10 +1013,10 @@
         <v>19.69871247088</v>
       </c>
       <c r="S9">
-        <v>0.01158089623980335</v>
+        <v>0.04125001564654888</v>
       </c>
       <c r="T9">
-        <v>0.0183367596860892</v>
+        <v>0.06603008041103961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I10">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J10">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N10">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O10">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P10">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q10">
-        <v>1.124756026223556</v>
+        <v>0.8557777175871111</v>
       </c>
       <c r="R10">
-        <v>10.122804236012</v>
+        <v>7.701999458284001</v>
       </c>
       <c r="S10">
-        <v>0.005951208521186143</v>
+        <v>0.01612834334394105</v>
       </c>
       <c r="T10">
-        <v>0.009422921873674401</v>
+        <v>0.02581710070178799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I11">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J11">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N11">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O11">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P11">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q11">
-        <v>11.96266485216133</v>
+        <v>16.679334497442</v>
       </c>
       <c r="R11">
-        <v>71.77598911296801</v>
+        <v>100.076006984652</v>
       </c>
       <c r="S11">
-        <v>0.06329578268036447</v>
+        <v>0.3143456857952159</v>
       </c>
       <c r="T11">
-        <v>0.06681345623687117</v>
+        <v>0.3354547561512345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I12">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J12">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N12">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O12">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P12">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q12">
-        <v>14.73208597543156</v>
+        <v>0.5401988227773333</v>
       </c>
       <c r="R12">
-        <v>132.588773778884</v>
+        <v>4.861789404996</v>
       </c>
       <c r="S12">
-        <v>0.07794909611305269</v>
+        <v>0.01018081203646054</v>
       </c>
       <c r="T12">
-        <v>0.1234216949686778</v>
+        <v>0.01629671714981304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I13">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J13">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N13">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O13">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P13">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q13">
-        <v>2.469979239191556</v>
+        <v>1.216134977291556</v>
       </c>
       <c r="R13">
-        <v>22.22981315272401</v>
+        <v>10.945214795624</v>
       </c>
       <c r="S13">
-        <v>0.01306893330883832</v>
+        <v>0.02291978636886814</v>
       </c>
       <c r="T13">
-        <v>0.02069286214775413</v>
+        <v>0.03668835788834007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H14">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I14">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J14">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N14">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O14">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P14">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q14">
-        <v>32.2237161116175</v>
+        <v>4.477243243979499</v>
       </c>
       <c r="R14">
-        <v>128.89486444647</v>
+        <v>17.908972975918</v>
       </c>
       <c r="S14">
-        <v>0.1704992455578319</v>
+        <v>0.08437999119308846</v>
       </c>
       <c r="T14">
-        <v>0.1199831794905314</v>
+        <v>0.06003087396839257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H15">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I15">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J15">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N15">
         <v>2.23052</v>
       </c>
       <c r="O15">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P15">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q15">
-        <v>1.51932092852</v>
+        <v>0.8580635715933334</v>
       </c>
       <c r="R15">
-        <v>9.11592557112</v>
+        <v>5.148381429560001</v>
       </c>
       <c r="S15">
-        <v>0.008038895054052838</v>
+        <v>0.01617142350072572</v>
       </c>
       <c r="T15">
-        <v>0.008485657971860102</v>
+        <v>0.01725737356099209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H16">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I16">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J16">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N16">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O16">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P16">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q16">
-        <v>0.780750942673</v>
+        <v>0.3354942701638333</v>
       </c>
       <c r="R16">
-        <v>4.684505656038</v>
+        <v>2.012965620983</v>
       </c>
       <c r="S16">
-        <v>0.004131039580699392</v>
+        <v>0.006322864767247727</v>
       </c>
       <c r="T16">
-        <v>0.004360622786381383</v>
+        <v>0.006747460374105757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H17">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I17">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J17">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N17">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O17">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P17">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q17">
-        <v>8.303900261433</v>
+        <v>6.538872231699751</v>
       </c>
       <c r="R17">
-        <v>33.215601045732</v>
+        <v>26.155488926799</v>
       </c>
       <c r="S17">
-        <v>0.04393685460912353</v>
+        <v>0.1232343098770628</v>
       </c>
       <c r="T17">
-        <v>0.03091910169788838</v>
+        <v>0.08767319384856431</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H18">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I18">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J18">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N18">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O18">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P18">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q18">
-        <v>10.226297743411</v>
+        <v>0.2117764999795</v>
       </c>
       <c r="R18">
-        <v>61.357786460466</v>
+        <v>1.270658999877</v>
       </c>
       <c r="S18">
-        <v>0.05410847228363985</v>
+        <v>0.003991228135125894</v>
       </c>
       <c r="T18">
-        <v>0.05711555955035883</v>
+        <v>0.004259248723027901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H19">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I19">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J19">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N19">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O19">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P19">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q19">
-        <v>1.714539486271</v>
+        <v>0.4767666979896666</v>
       </c>
       <c r="R19">
-        <v>10.287236917626</v>
+        <v>2.860600187938</v>
       </c>
       <c r="S19">
-        <v>0.009071818032276123</v>
+        <v>0.008985343789757728</v>
       </c>
       <c r="T19">
-        <v>0.009575985814871187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H20">
-        <v>2.033836</v>
-      </c>
-      <c r="I20">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J20">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>15.7692475</v>
-      </c>
-      <c r="N20">
-        <v>31.538495</v>
-      </c>
-      <c r="O20">
-        <v>0.5883619438861605</v>
-      </c>
-      <c r="P20">
-        <v>0.520669691097388</v>
-      </c>
-      <c r="Q20">
-        <v>10.69068775280333</v>
-      </c>
-      <c r="R20">
-        <v>64.14412651681999</v>
-      </c>
-      <c r="S20">
-        <v>0.0565656111800889</v>
-      </c>
-      <c r="T20">
-        <v>0.05970925434602713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H21">
-        <v>2.033836</v>
-      </c>
-      <c r="I21">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J21">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.7435066666666666</v>
-      </c>
-      <c r="N21">
-        <v>2.23052</v>
-      </c>
-      <c r="O21">
-        <v>0.02774076744577188</v>
-      </c>
-      <c r="P21">
-        <v>0.03682370257003531</v>
-      </c>
-      <c r="Q21">
-        <v>0.5040568749688888</v>
-      </c>
-      <c r="R21">
-        <v>4.53651187472</v>
-      </c>
-      <c r="S21">
-        <v>0.002667020668961574</v>
-      </c>
-      <c r="T21">
-        <v>0.0042228611734295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H22">
-        <v>2.033836</v>
-      </c>
-      <c r="I22">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J22">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.3820743333333333</v>
-      </c>
-      <c r="N22">
-        <v>1.146223</v>
-      </c>
-      <c r="O22">
-        <v>0.01425546764162392</v>
-      </c>
-      <c r="P22">
-        <v>0.01892302011680397</v>
-      </c>
-      <c r="Q22">
-        <v>0.2590255112697778</v>
-      </c>
-      <c r="R22">
-        <v>2.331229601428</v>
-      </c>
-      <c r="S22">
-        <v>0.001370532625683313</v>
-      </c>
-      <c r="T22">
-        <v>0.002170050303423364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H23">
-        <v>2.033836</v>
-      </c>
-      <c r="I23">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J23">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.063661</v>
-      </c>
-      <c r="N23">
-        <v>8.127321999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.1516181089335036</v>
-      </c>
-      <c r="P23">
-        <v>0.1341741333944123</v>
-      </c>
-      <c r="Q23">
-        <v>2.754940011198666</v>
-      </c>
-      <c r="R23">
-        <v>16.529640067192</v>
-      </c>
-      <c r="S23">
-        <v>0.0145766922672557</v>
-      </c>
-      <c r="T23">
-        <v>0.01538679434291528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H24">
-        <v>2.033836</v>
-      </c>
-      <c r="I24">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J24">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.004420333333333</v>
-      </c>
-      <c r="N24">
-        <v>15.013261</v>
-      </c>
-      <c r="O24">
-        <v>0.1867185149667685</v>
-      </c>
-      <c r="P24">
-        <v>0.2478542481889026</v>
-      </c>
-      <c r="Q24">
-        <v>3.392723411021777</v>
-      </c>
-      <c r="R24">
-        <v>30.534510699196</v>
-      </c>
-      <c r="S24">
-        <v>0.01795127476799792</v>
-      </c>
-      <c r="T24">
-        <v>0.02842337973363312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H25">
-        <v>2.033836</v>
-      </c>
-      <c r="I25">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J25">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.8390403333333335</v>
-      </c>
-      <c r="N25">
-        <v>2.517121</v>
-      </c>
-      <c r="O25">
-        <v>0.03130519712617182</v>
-      </c>
-      <c r="P25">
-        <v>0.04155520463245785</v>
-      </c>
-      <c r="Q25">
-        <v>0.5688234784617778</v>
-      </c>
-      <c r="R25">
-        <v>5.119411306156</v>
-      </c>
-      <c r="S25">
-        <v>0.003009707930562034</v>
-      </c>
-      <c r="T25">
-        <v>0.004765459417411204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.030868</v>
-      </c>
-      <c r="I26">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J26">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>15.7692475</v>
-      </c>
-      <c r="N26">
-        <v>31.538495</v>
-      </c>
-      <c r="O26">
-        <v>0.5883619438861605</v>
-      </c>
-      <c r="P26">
-        <v>0.520669691097388</v>
-      </c>
-      <c r="Q26">
-        <v>0.1622550439433333</v>
-      </c>
-      <c r="R26">
-        <v>0.9735302636600001</v>
-      </c>
-      <c r="S26">
-        <v>0.0008585093812416461</v>
-      </c>
-      <c r="T26">
-        <v>0.0009062211816258368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.030868</v>
-      </c>
-      <c r="I27">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J27">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.7435066666666666</v>
-      </c>
-      <c r="N27">
-        <v>2.23052</v>
-      </c>
-      <c r="O27">
-        <v>0.02774076744577188</v>
-      </c>
-      <c r="P27">
-        <v>0.03682370257003531</v>
-      </c>
-      <c r="Q27">
-        <v>0.00765018792888889</v>
-      </c>
-      <c r="R27">
-        <v>0.06885169136000001</v>
-      </c>
-      <c r="S27">
-        <v>4.047799036377854E-05</v>
-      </c>
-      <c r="T27">
-        <v>6.409134202630979E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.030868</v>
-      </c>
-      <c r="I28">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J28">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.3820743333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.146223</v>
-      </c>
-      <c r="O28">
-        <v>0.01425546764162392</v>
-      </c>
-      <c r="P28">
-        <v>0.01892302011680397</v>
-      </c>
-      <c r="Q28">
-        <v>0.003931290173777778</v>
-      </c>
-      <c r="R28">
-        <v>0.03538161156400001</v>
-      </c>
-      <c r="S28">
-        <v>2.080089106967942E-05</v>
-      </c>
-      <c r="T28">
-        <v>3.293535602972531E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.030868</v>
-      </c>
-      <c r="I29">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J29">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>4.063661</v>
-      </c>
-      <c r="N29">
-        <v>8.127321999999999</v>
-      </c>
-      <c r="O29">
-        <v>0.1516181089335036</v>
-      </c>
-      <c r="P29">
-        <v>0.1341741333944123</v>
-      </c>
-      <c r="Q29">
-        <v>0.04181236258266667</v>
-      </c>
-      <c r="R29">
-        <v>0.250874175496</v>
-      </c>
-      <c r="S29">
-        <v>0.0002212338344417391</v>
-      </c>
-      <c r="T29">
-        <v>0.0002335289412603125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.030868</v>
-      </c>
-      <c r="I30">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J30">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>5.004420333333333</v>
-      </c>
-      <c r="N30">
-        <v>15.013261</v>
-      </c>
-      <c r="O30">
-        <v>0.1867185149667685</v>
-      </c>
-      <c r="P30">
-        <v>0.2478542481889026</v>
-      </c>
-      <c r="Q30">
-        <v>0.05149214894977778</v>
-      </c>
-      <c r="R30">
-        <v>0.4634293405480001</v>
-      </c>
-      <c r="S30">
-        <v>0.0002724506545948443</v>
-      </c>
-      <c r="T30">
-        <v>0.0004313882169544581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.030868</v>
-      </c>
-      <c r="I31">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J31">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.8390403333333335</v>
-      </c>
-      <c r="N31">
-        <v>2.517121</v>
-      </c>
-      <c r="O31">
-        <v>0.03130519712617182</v>
-      </c>
-      <c r="P31">
-        <v>0.04155520463245785</v>
-      </c>
-      <c r="Q31">
-        <v>0.00863316566977778</v>
-      </c>
-      <c r="R31">
-        <v>0.07769849102800001</v>
-      </c>
-      <c r="S31">
-        <v>4.567903429804021E-05</v>
-      </c>
-      <c r="T31">
-        <v>7.232648123872773E-05</v>
+        <v>0.009588731279397317</v>
       </c>
     </row>
   </sheetData>
